--- a/budgets/data/supplies/ConstructionWorkforce/data/ConstructionWorkforce.xlsx
+++ b/budgets/data/supplies/ConstructionWorkforce/data/ConstructionWorkforce.xlsx
@@ -100,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +600,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -642,17 +646,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -952,7 +946,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1003,15 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1017,6 +1020,15 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1025,6 +1037,15 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1033,6 +1054,15 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1041,6 +1071,15 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1049,6 +1088,15 @@
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1057,6 +1105,15 @@
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1065,6 +1122,15 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1073,6 +1139,15 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1081,6 +1156,15 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1089,6 +1173,15 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1097,6 +1190,15 @@
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1105,38 +1207,75 @@
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2013</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2014</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2015</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B19">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A19">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>